--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61759</v>
+        <v>62178</v>
       </c>
       <c r="D2" t="n">
-        <v>18299</v>
+        <v>18330</v>
       </c>
       <c r="E2" t="n">
-        <v>139005875</v>
+        <v>140654363</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>149955</v>
+        <v>150981</v>
       </c>
       <c r="D3" t="n">
-        <v>45756</v>
+        <v>45822</v>
       </c>
       <c r="E3" t="n">
-        <v>403777123</v>
+        <v>409176599</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55887</v>
+        <v>56320</v>
       </c>
       <c r="D4" t="n">
-        <v>17777</v>
+        <v>17824</v>
       </c>
       <c r="E4" t="n">
-        <v>197669924</v>
+        <v>200482511</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18504</v>
+        <v>18677</v>
       </c>
       <c r="D5" t="n">
-        <v>6084</v>
+        <v>6106</v>
       </c>
       <c r="E5" t="n">
-        <v>83648446</v>
+        <v>84925948</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7408</v>
+        <v>7515</v>
       </c>
       <c r="D6" t="n">
-        <v>2802</v>
+        <v>2826</v>
       </c>
       <c r="E6" t="n">
-        <v>53515728</v>
+        <v>54410073</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1791</v>
+        <v>1818</v>
       </c>
       <c r="D7" t="n">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E7" t="n">
-        <v>27531282</v>
+        <v>27760276</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65485</v>
+        <v>65971</v>
       </c>
       <c r="D12" t="n">
-        <v>19887</v>
+        <v>19928</v>
       </c>
       <c r="E12" t="n">
-        <v>110094548</v>
+        <v>111271780</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15599</v>
+        <v>15700</v>
       </c>
       <c r="D13" t="n">
-        <v>4659</v>
+        <v>4662</v>
       </c>
       <c r="E13" t="n">
-        <v>35067906</v>
+        <v>35453631</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42047</v>
+        <v>42368</v>
       </c>
       <c r="D14" t="n">
-        <v>13069</v>
+        <v>13094</v>
       </c>
       <c r="E14" t="n">
-        <v>111422416</v>
+        <v>113192748</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14346</v>
+        <v>14447</v>
       </c>
       <c r="D15" t="n">
-        <v>4689</v>
+        <v>4704</v>
       </c>
       <c r="E15" t="n">
-        <v>48352928</v>
+        <v>49017589</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4287</v>
+        <v>4337</v>
       </c>
       <c r="D16" t="n">
-        <v>1478</v>
+        <v>1491</v>
       </c>
       <c r="E16" t="n">
-        <v>17709916</v>
+        <v>18068734</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1563</v>
+        <v>1582</v>
       </c>
       <c r="D17" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E17" t="n">
-        <v>10879096</v>
+        <v>11022426</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D18" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E18" t="n">
-        <v>6301046</v>
+        <v>6364046</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>314190</v>
+        <v>317190</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15526</v>
+        <v>15640</v>
       </c>
       <c r="D21" t="n">
-        <v>4880</v>
+        <v>4889</v>
       </c>
       <c r="E21" t="n">
-        <v>25324429</v>
+        <v>25590494</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21876</v>
+        <v>22002</v>
       </c>
       <c r="D22" t="n">
-        <v>6356</v>
+        <v>6359</v>
       </c>
       <c r="E22" t="n">
-        <v>53133012</v>
+        <v>53702682</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51999</v>
+        <v>52339</v>
       </c>
       <c r="D23" t="n">
-        <v>16012</v>
+        <v>16040</v>
       </c>
       <c r="E23" t="n">
-        <v>146105413</v>
+        <v>148043450</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18474</v>
+        <v>18619</v>
       </c>
       <c r="D24" t="n">
-        <v>6196</v>
+        <v>6212</v>
       </c>
       <c r="E24" t="n">
-        <v>65488429</v>
+        <v>66378510</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5668</v>
+        <v>5727</v>
       </c>
       <c r="D25" t="n">
-        <v>2043</v>
+        <v>2057</v>
       </c>
       <c r="E25" t="n">
-        <v>24667901</v>
+        <v>25019609</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2050</v>
+        <v>2078</v>
       </c>
       <c r="D26" t="n">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E26" t="n">
-        <v>14731025</v>
+        <v>14920411</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D27" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>6562144</v>
+        <v>6614976</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17174</v>
+        <v>17281</v>
       </c>
       <c r="D29" t="n">
-        <v>5474</v>
+        <v>5481</v>
       </c>
       <c r="E29" t="n">
-        <v>27933126</v>
+        <v>28162130</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12317</v>
+        <v>12393</v>
       </c>
       <c r="D30" t="n">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="E30" t="n">
-        <v>27796901</v>
+        <v>28095695</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35705</v>
+        <v>35941</v>
       </c>
       <c r="D31" t="n">
-        <v>11303</v>
+        <v>11318</v>
       </c>
       <c r="E31" t="n">
-        <v>91701930</v>
+        <v>93010842</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13171</v>
+        <v>13261</v>
       </c>
       <c r="D32" t="n">
-        <v>4425</v>
+        <v>4432</v>
       </c>
       <c r="E32" t="n">
-        <v>43323577</v>
+        <v>43871669</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3711</v>
+        <v>3744</v>
       </c>
       <c r="D33" t="n">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="E33" t="n">
-        <v>14959306</v>
+        <v>15214604</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="D34" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E34" t="n">
-        <v>9489569</v>
+        <v>9560235</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D35" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E35" t="n">
-        <v>3363902</v>
+        <v>3441191</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>635479</v>
+        <v>645479</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12437</v>
+        <v>12493</v>
       </c>
       <c r="D37" t="n">
-        <v>3876</v>
+        <v>3878</v>
       </c>
       <c r="E37" t="n">
-        <v>20043735</v>
+        <v>20197011</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5727</v>
+        <v>5757</v>
       </c>
       <c r="D38" t="n">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E38" t="n">
-        <v>15162692</v>
+        <v>15315308</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13138</v>
+        <v>13225</v>
       </c>
       <c r="D39" t="n">
-        <v>3663</v>
+        <v>3675</v>
       </c>
       <c r="E39" t="n">
-        <v>35716707</v>
+        <v>36186387</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5641</v>
+        <v>5675</v>
       </c>
       <c r="D40" t="n">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="E40" t="n">
-        <v>20334693</v>
+        <v>20554857</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1623</v>
+        <v>1647</v>
       </c>
       <c r="D41" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E41" t="n">
-        <v>7427055</v>
+        <v>7607252</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="D42" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E42" t="n">
-        <v>4400707</v>
+        <v>4502694</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>428951</v>
+        <v>437749</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3922</v>
+        <v>3943</v>
       </c>
       <c r="D45" t="n">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="E45" t="n">
-        <v>6260233</v>
+        <v>6314094</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28154</v>
+        <v>28393</v>
       </c>
       <c r="D46" t="n">
-        <v>8912</v>
+        <v>8953</v>
       </c>
       <c r="E46" t="n">
-        <v>64014372</v>
+        <v>65142544</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>83466</v>
+        <v>84245</v>
       </c>
       <c r="D47" t="n">
-        <v>27194</v>
+        <v>27320</v>
       </c>
       <c r="E47" t="n">
-        <v>222178083</v>
+        <v>226437908</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32699</v>
+        <v>33005</v>
       </c>
       <c r="D48" t="n">
-        <v>10928</v>
+        <v>10981</v>
       </c>
       <c r="E48" t="n">
-        <v>109716508</v>
+        <v>111798145</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11026</v>
+        <v>11164</v>
       </c>
       <c r="D49" t="n">
-        <v>3791</v>
+        <v>3810</v>
       </c>
       <c r="E49" t="n">
-        <v>45760719</v>
+        <v>46771189</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4207</v>
+        <v>4287</v>
       </c>
       <c r="D50" t="n">
-        <v>1573</v>
+        <v>1593</v>
       </c>
       <c r="E50" t="n">
-        <v>31070116</v>
+        <v>31617756</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="D51" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E51" t="n">
-        <v>14823327</v>
+        <v>14935293</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" t="n">
         <v>34</v>
       </c>
       <c r="E52" t="n">
-        <v>2382935</v>
+        <v>2388427</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29635</v>
+        <v>30051</v>
       </c>
       <c r="D53" t="n">
-        <v>10410</v>
+        <v>10547</v>
       </c>
       <c r="E53" t="n">
-        <v>57946478</v>
+        <v>59493497</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2825</v>
+        <v>2830</v>
       </c>
       <c r="D54" t="n">
         <v>771</v>
       </c>
       <c r="E54" t="n">
-        <v>4795686</v>
+        <v>4819045</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9336</v>
+        <v>9363</v>
       </c>
       <c r="D55" t="n">
         <v>2731</v>
       </c>
       <c r="E55" t="n">
-        <v>16222582</v>
+        <v>16329971</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="D56" t="n">
         <v>991</v>
       </c>
       <c r="E56" t="n">
-        <v>5944967</v>
+        <v>5964070</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D57" t="n">
         <v>353</v>
       </c>
       <c r="E57" t="n">
-        <v>2369719</v>
+        <v>2391219</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D58" t="n">
         <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>852475</v>
+        <v>862475</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9885</v>
+        <v>9925</v>
       </c>
       <c r="D61" t="n">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="E61" t="n">
-        <v>15255251</v>
+        <v>15351186</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="D62" t="n">
         <v>368</v>
       </c>
       <c r="E62" t="n">
-        <v>4211347</v>
+        <v>4235847</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4471</v>
+        <v>4477</v>
       </c>
       <c r="D63" t="n">
         <v>942</v>
       </c>
       <c r="E63" t="n">
-        <v>9845563</v>
+        <v>9855503</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D64" t="n">
         <v>400</v>
       </c>
       <c r="E64" t="n">
-        <v>4243771</v>
+        <v>4245271</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D68" t="n">
         <v>548</v>
       </c>
       <c r="E68" t="n">
-        <v>5790692</v>
+        <v>5793092</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24606</v>
+        <v>24763</v>
       </c>
       <c r="D69" t="n">
-        <v>7254</v>
+        <v>7261</v>
       </c>
       <c r="E69" t="n">
-        <v>52422806</v>
+        <v>53053987</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>72068</v>
+        <v>72504</v>
       </c>
       <c r="D70" t="n">
-        <v>22125</v>
+        <v>22162</v>
       </c>
       <c r="E70" t="n">
-        <v>183859118</v>
+        <v>186047916</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>26903</v>
+        <v>27098</v>
       </c>
       <c r="D71" t="n">
-        <v>8658</v>
+        <v>8678</v>
       </c>
       <c r="E71" t="n">
-        <v>89450600</v>
+        <v>90748653</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8687</v>
+        <v>8749</v>
       </c>
       <c r="D72" t="n">
-        <v>3013</v>
+        <v>3018</v>
       </c>
       <c r="E72" t="n">
-        <v>34333959</v>
+        <v>34755092</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3084</v>
+        <v>3118</v>
       </c>
       <c r="D73" t="n">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="E73" t="n">
-        <v>20923818</v>
+        <v>21151007</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="D74" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E74" t="n">
-        <v>12477399</v>
+        <v>12573228</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>22895</v>
+        <v>23017</v>
       </c>
       <c r="D79" t="n">
-        <v>7018</v>
+        <v>7031</v>
       </c>
       <c r="E79" t="n">
-        <v>36817817</v>
+        <v>37184813</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>90783</v>
+        <v>91224</v>
       </c>
       <c r="D80" t="n">
-        <v>23716</v>
+        <v>23739</v>
       </c>
       <c r="E80" t="n">
-        <v>202545083</v>
+        <v>204332149</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>246548</v>
+        <v>247872</v>
       </c>
       <c r="D81" t="n">
-        <v>68146</v>
+        <v>68242</v>
       </c>
       <c r="E81" t="n">
-        <v>619948984</v>
+        <v>626775760</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>114177</v>
+        <v>114905</v>
       </c>
       <c r="D82" t="n">
-        <v>32526</v>
+        <v>32613</v>
       </c>
       <c r="E82" t="n">
-        <v>387021552</v>
+        <v>391952951</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>43478</v>
+        <v>43823</v>
       </c>
       <c r="D83" t="n">
-        <v>12781</v>
+        <v>12848</v>
       </c>
       <c r="E83" t="n">
-        <v>193860497</v>
+        <v>196494990</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17604</v>
+        <v>17814</v>
       </c>
       <c r="D84" t="n">
-        <v>6063</v>
+        <v>6104</v>
       </c>
       <c r="E84" t="n">
-        <v>129052189</v>
+        <v>130711609</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4079</v>
+        <v>4160</v>
       </c>
       <c r="D85" t="n">
-        <v>1868</v>
+        <v>1888</v>
       </c>
       <c r="E85" t="n">
-        <v>70271263</v>
+        <v>70958608</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D86" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E86" t="n">
-        <v>9633565</v>
+        <v>9673565</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>85757</v>
+        <v>86121</v>
       </c>
       <c r="D92" t="n">
-        <v>22055</v>
+        <v>22074</v>
       </c>
       <c r="E92" t="n">
-        <v>142540210</v>
+        <v>143466388</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5839</v>
+        <v>5853</v>
       </c>
       <c r="D93" t="n">
         <v>1883</v>
       </c>
       <c r="E93" t="n">
-        <v>9403772</v>
+        <v>9435822</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13915</v>
+        <v>13940</v>
       </c>
       <c r="D94" t="n">
-        <v>4928</v>
+        <v>4929</v>
       </c>
       <c r="E94" t="n">
-        <v>22907958</v>
+        <v>23029857</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4433</v>
+        <v>4442</v>
       </c>
       <c r="D95" t="n">
         <v>1825</v>
       </c>
       <c r="E95" t="n">
-        <v>7647865</v>
+        <v>7680912</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D96" t="n">
         <v>674</v>
       </c>
       <c r="E96" t="n">
-        <v>2976202</v>
+        <v>2978944</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D97" t="n">
         <v>169</v>
       </c>
       <c r="E97" t="n">
-        <v>1834224</v>
+        <v>1865724</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6582</v>
+        <v>6587</v>
       </c>
       <c r="D100" t="n">
         <v>2047</v>
       </c>
       <c r="E100" t="n">
-        <v>9106896</v>
+        <v>9115788</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2420</v>
+        <v>2431</v>
       </c>
       <c r="D101" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E101" t="n">
-        <v>4671513</v>
+        <v>4712029</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7666</v>
+        <v>7704</v>
       </c>
       <c r="D102" t="n">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="E102" t="n">
-        <v>16060660</v>
+        <v>16265239</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2742</v>
+        <v>2752</v>
       </c>
       <c r="D103" t="n">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E103" t="n">
-        <v>6742427</v>
+        <v>6790940</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="D104" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E104" t="n">
-        <v>2859372</v>
+        <v>2900038</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5225</v>
+        <v>5241</v>
       </c>
       <c r="D108" t="n">
         <v>1398</v>
       </c>
       <c r="E108" t="n">
-        <v>7777774</v>
+        <v>7822219</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D109" t="n">
         <v>235</v>
       </c>
       <c r="E109" t="n">
-        <v>2523386</v>
+        <v>2526386</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D110" t="n">
         <v>135</v>
       </c>
       <c r="E110" t="n">
-        <v>1983069</v>
+        <v>2006392</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17749</v>
+        <v>17855</v>
       </c>
       <c r="D115" t="n">
-        <v>5107</v>
+        <v>5113</v>
       </c>
       <c r="E115" t="n">
-        <v>41189849</v>
+        <v>41660599</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>46918</v>
+        <v>47286</v>
       </c>
       <c r="D116" t="n">
-        <v>14703</v>
+        <v>14730</v>
       </c>
       <c r="E116" t="n">
-        <v>125202551</v>
+        <v>127322650</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>16994</v>
+        <v>17161</v>
       </c>
       <c r="D117" t="n">
-        <v>5575</v>
+        <v>5588</v>
       </c>
       <c r="E117" t="n">
-        <v>57226421</v>
+        <v>58373280</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5443</v>
+        <v>5490</v>
       </c>
       <c r="D118" t="n">
-        <v>1920</v>
+        <v>1926</v>
       </c>
       <c r="E118" t="n">
-        <v>22802420</v>
+        <v>23146363</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1899</v>
+        <v>1926</v>
       </c>
       <c r="D119" t="n">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E119" t="n">
-        <v>13840105</v>
+        <v>14053137</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D120" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E120" t="n">
-        <v>6774486</v>
+        <v>6825986</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D121" t="n">
         <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>812935</v>
+        <v>813601</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>14471</v>
+        <v>14557</v>
       </c>
       <c r="D122" t="n">
-        <v>4527</v>
+        <v>4530</v>
       </c>
       <c r="E122" t="n">
-        <v>23380638</v>
+        <v>23612191</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>48981</v>
+        <v>49259</v>
       </c>
       <c r="D123" t="n">
-        <v>14429</v>
+        <v>14448</v>
       </c>
       <c r="E123" t="n">
-        <v>112871671</v>
+        <v>114014838</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>103998</v>
+        <v>104670</v>
       </c>
       <c r="D124" t="n">
-        <v>33537</v>
+        <v>33582</v>
       </c>
       <c r="E124" t="n">
-        <v>267014540</v>
+        <v>270475123</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>35995</v>
+        <v>36249</v>
       </c>
       <c r="D125" t="n">
-        <v>12199</v>
+        <v>12233</v>
       </c>
       <c r="E125" t="n">
-        <v>117507468</v>
+        <v>119237784</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11843</v>
+        <v>11939</v>
       </c>
       <c r="D126" t="n">
-        <v>4224</v>
+        <v>4234</v>
       </c>
       <c r="E126" t="n">
-        <v>48617470</v>
+        <v>49315761</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4191</v>
+        <v>4247</v>
       </c>
       <c r="D127" t="n">
-        <v>1660</v>
+        <v>1677</v>
       </c>
       <c r="E127" t="n">
-        <v>30330238</v>
+        <v>30730794</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="D128" t="n">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E128" t="n">
-        <v>16557865</v>
+        <v>16677200</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>37775</v>
+        <v>37943</v>
       </c>
       <c r="D132" t="n">
-        <v>12410</v>
+        <v>12415</v>
       </c>
       <c r="E132" t="n">
-        <v>60137124</v>
+        <v>60514032</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>59500</v>
+        <v>59883</v>
       </c>
       <c r="D133" t="n">
-        <v>16767</v>
+        <v>16780</v>
       </c>
       <c r="E133" t="n">
-        <v>138750911</v>
+        <v>140308625</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>123332</v>
+        <v>124193</v>
       </c>
       <c r="D134" t="n">
-        <v>37805</v>
+        <v>37867</v>
       </c>
       <c r="E134" t="n">
-        <v>313872559</v>
+        <v>318258042</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5878,13 +5878,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>40802</v>
+        <v>41065</v>
       </c>
       <c r="D135" t="n">
-        <v>13255</v>
+        <v>13269</v>
       </c>
       <c r="E135" t="n">
-        <v>136066699</v>
+        <v>137867490</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5919,13 +5919,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>12495</v>
+        <v>12594</v>
       </c>
       <c r="D136" t="n">
-        <v>4304</v>
+        <v>4323</v>
       </c>
       <c r="E136" t="n">
-        <v>50800095</v>
+        <v>51535966</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4426</v>
+        <v>4485</v>
       </c>
       <c r="D137" t="n">
-        <v>1682</v>
+        <v>1701</v>
       </c>
       <c r="E137" t="n">
-        <v>30633197</v>
+        <v>31026270</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="D138" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E138" t="n">
-        <v>15670056</v>
+        <v>15790651</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D139" t="n">
         <v>45</v>
       </c>
       <c r="E139" t="n">
-        <v>2487503</v>
+        <v>2489003</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>47447</v>
+        <v>47753</v>
       </c>
       <c r="D141" t="n">
-        <v>14905</v>
+        <v>14917</v>
       </c>
       <c r="E141" t="n">
-        <v>73697495</v>
+        <v>74356051</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21369</v>
+        <v>21494</v>
       </c>
       <c r="D142" t="n">
-        <v>6314</v>
+        <v>6322</v>
       </c>
       <c r="E142" t="n">
-        <v>49481512</v>
+        <v>50014211</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>51952</v>
+        <v>52291</v>
       </c>
       <c r="D143" t="n">
-        <v>16594</v>
+        <v>16613</v>
       </c>
       <c r="E143" t="n">
-        <v>140366906</v>
+        <v>142247392</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>19967</v>
+        <v>20128</v>
       </c>
       <c r="D144" t="n">
-        <v>6772</v>
+        <v>6794</v>
       </c>
       <c r="E144" t="n">
-        <v>68195076</v>
+        <v>69243845</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5940</v>
+        <v>5997</v>
       </c>
       <c r="D145" t="n">
-        <v>2216</v>
+        <v>2228</v>
       </c>
       <c r="E145" t="n">
-        <v>24734131</v>
+        <v>25118313</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2063</v>
+        <v>2113</v>
       </c>
       <c r="D146" t="n">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="E146" t="n">
-        <v>16043090</v>
+        <v>16421283</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D147" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E147" t="n">
-        <v>10061019</v>
+        <v>10135051</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D148" t="n">
         <v>17</v>
       </c>
       <c r="E148" t="n">
-        <v>673098</v>
+        <v>683098</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>15800</v>
+        <v>15878</v>
       </c>
       <c r="D150" t="n">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="E150" t="n">
-        <v>25580945</v>
+        <v>25767389</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>58569</v>
+        <v>58919</v>
       </c>
       <c r="D151" t="n">
-        <v>16269</v>
+        <v>16282</v>
       </c>
       <c r="E151" t="n">
-        <v>135496452</v>
+        <v>136890765</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>136006</v>
+        <v>136869</v>
       </c>
       <c r="D152" t="n">
-        <v>39545</v>
+        <v>39604</v>
       </c>
       <c r="E152" t="n">
-        <v>356036152</v>
+        <v>360404051</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>44225</v>
+        <v>44520</v>
       </c>
       <c r="D153" t="n">
-        <v>13390</v>
+        <v>13418</v>
       </c>
       <c r="E153" t="n">
-        <v>154023833</v>
+        <v>155976472</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>13740</v>
+        <v>13864</v>
       </c>
       <c r="D154" t="n">
-        <v>4360</v>
+        <v>4389</v>
       </c>
       <c r="E154" t="n">
-        <v>61635645</v>
+        <v>62542849</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5414</v>
+        <v>5475</v>
       </c>
       <c r="D155" t="n">
-        <v>1954</v>
+        <v>1975</v>
       </c>
       <c r="E155" t="n">
-        <v>39275434</v>
+        <v>39767676</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1295</v>
+        <v>1324</v>
       </c>
       <c r="D156" t="n">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="E156" t="n">
-        <v>21935673</v>
+        <v>22144432</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D157" t="n">
         <v>56</v>
       </c>
       <c r="E157" t="n">
-        <v>3039042</v>
+        <v>3049042</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>44537</v>
+        <v>44791</v>
       </c>
       <c r="D159" t="n">
-        <v>13204</v>
+        <v>13212</v>
       </c>
       <c r="E159" t="n">
-        <v>71670169</v>
+        <v>72261419</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62178</v>
+        <v>62370</v>
       </c>
       <c r="D2" t="n">
-        <v>18330</v>
+        <v>18346</v>
       </c>
       <c r="E2" t="n">
-        <v>140654363</v>
+        <v>141435930</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150981</v>
+        <v>151463</v>
       </c>
       <c r="D3" t="n">
-        <v>45822</v>
+        <v>45856</v>
       </c>
       <c r="E3" t="n">
-        <v>409176599</v>
+        <v>411667777</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56320</v>
+        <v>56544</v>
       </c>
       <c r="D4" t="n">
-        <v>17824</v>
+        <v>17850</v>
       </c>
       <c r="E4" t="n">
-        <v>200482511</v>
+        <v>201980629</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18677</v>
+        <v>18787</v>
       </c>
       <c r="D5" t="n">
-        <v>6106</v>
+        <v>6120</v>
       </c>
       <c r="E5" t="n">
-        <v>84925948</v>
+        <v>85769635</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7515</v>
+        <v>7573</v>
       </c>
       <c r="D6" t="n">
-        <v>2826</v>
+        <v>2839</v>
       </c>
       <c r="E6" t="n">
-        <v>54410073</v>
+        <v>54903025</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1818</v>
+        <v>1837</v>
       </c>
       <c r="D7" t="n">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E7" t="n">
-        <v>27760276</v>
+        <v>27914834</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>5247841</v>
+        <v>5257841</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65971</v>
+        <v>66208</v>
       </c>
       <c r="D12" t="n">
-        <v>19928</v>
+        <v>19934</v>
       </c>
       <c r="E12" t="n">
-        <v>111271780</v>
+        <v>111809839</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15700</v>
+        <v>15754</v>
       </c>
       <c r="D13" t="n">
-        <v>4662</v>
+        <v>4664</v>
       </c>
       <c r="E13" t="n">
-        <v>35453631</v>
+        <v>35662621</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42368</v>
+        <v>42527</v>
       </c>
       <c r="D14" t="n">
-        <v>13094</v>
+        <v>13104</v>
       </c>
       <c r="E14" t="n">
-        <v>113192748</v>
+        <v>113968187</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14447</v>
+        <v>14509</v>
       </c>
       <c r="D15" t="n">
-        <v>4704</v>
+        <v>4712</v>
       </c>
       <c r="E15" t="n">
-        <v>49017589</v>
+        <v>49429667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4337</v>
+        <v>4358</v>
       </c>
       <c r="D16" t="n">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E16" t="n">
-        <v>18068734</v>
+        <v>18245603</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="D17" t="n">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E17" t="n">
-        <v>11022426</v>
+        <v>11065008</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D18" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E18" t="n">
-        <v>6364046</v>
+        <v>6405546</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>317190</v>
+        <v>327190</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15640</v>
+        <v>15700</v>
       </c>
       <c r="D21" t="n">
-        <v>4889</v>
+        <v>4897</v>
       </c>
       <c r="E21" t="n">
-        <v>25590494</v>
+        <v>25716044</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22002</v>
+        <v>22062</v>
       </c>
       <c r="D22" t="n">
-        <v>6359</v>
+        <v>6363</v>
       </c>
       <c r="E22" t="n">
-        <v>53702682</v>
+        <v>54030496</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52339</v>
+        <v>52514</v>
       </c>
       <c r="D23" t="n">
-        <v>16040</v>
+        <v>16058</v>
       </c>
       <c r="E23" t="n">
-        <v>148043450</v>
+        <v>149017956</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18619</v>
+        <v>18696</v>
       </c>
       <c r="D24" t="n">
-        <v>6212</v>
+        <v>6226</v>
       </c>
       <c r="E24" t="n">
-        <v>66378510</v>
+        <v>66853165</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5727</v>
+        <v>5758</v>
       </c>
       <c r="D25" t="n">
-        <v>2057</v>
+        <v>2065</v>
       </c>
       <c r="E25" t="n">
-        <v>25019609</v>
+        <v>25250031</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2078</v>
+        <v>2102</v>
       </c>
       <c r="D26" t="n">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="E26" t="n">
-        <v>14920411</v>
+        <v>15087407</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D27" t="n">
         <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>6614976</v>
+        <v>6626308</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>437834</v>
+        <v>447834</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17281</v>
+        <v>17327</v>
       </c>
       <c r="D29" t="n">
-        <v>5481</v>
+        <v>5487</v>
       </c>
       <c r="E29" t="n">
-        <v>28162130</v>
+        <v>28287032</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12393</v>
+        <v>12427</v>
       </c>
       <c r="D30" t="n">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="E30" t="n">
-        <v>28095695</v>
+        <v>28228485</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35941</v>
+        <v>36065</v>
       </c>
       <c r="D31" t="n">
-        <v>11318</v>
+        <v>11332</v>
       </c>
       <c r="E31" t="n">
-        <v>93010842</v>
+        <v>93660253</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13261</v>
+        <v>13328</v>
       </c>
       <c r="D32" t="n">
-        <v>4432</v>
+        <v>4442</v>
       </c>
       <c r="E32" t="n">
-        <v>43871669</v>
+        <v>44293273</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3744</v>
+        <v>3756</v>
       </c>
       <c r="D33" t="n">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E33" t="n">
-        <v>15214604</v>
+        <v>15287776</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="D34" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E34" t="n">
-        <v>9560235</v>
+        <v>9647567</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D35" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E35" t="n">
-        <v>3441191</v>
+        <v>3512691</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12493</v>
+        <v>12539</v>
       </c>
       <c r="D37" t="n">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="E37" t="n">
-        <v>20197011</v>
+        <v>20282189</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5757</v>
+        <v>5774</v>
       </c>
       <c r="D38" t="n">
         <v>1467</v>
       </c>
       <c r="E38" t="n">
-        <v>15315308</v>
+        <v>15414734</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13225</v>
+        <v>13290</v>
       </c>
       <c r="D39" t="n">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="E39" t="n">
-        <v>36186387</v>
+        <v>36497355</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5675</v>
+        <v>5720</v>
       </c>
       <c r="D40" t="n">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="E40" t="n">
-        <v>20554857</v>
+        <v>20850970</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="D41" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E41" t="n">
-        <v>7607252</v>
+        <v>7657809</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D42" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E42" t="n">
-        <v>4502694</v>
+        <v>4532694</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="n">
         <v>58</v>
       </c>
       <c r="E43" t="n">
-        <v>1498722</v>
+        <v>1499388</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3943</v>
+        <v>3960</v>
       </c>
       <c r="D45" t="n">
         <v>1193</v>
       </c>
       <c r="E45" t="n">
-        <v>6314094</v>
+        <v>6344137</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28393</v>
+        <v>28507</v>
       </c>
       <c r="D46" t="n">
-        <v>8953</v>
+        <v>8970</v>
       </c>
       <c r="E46" t="n">
-        <v>65142544</v>
+        <v>65665965</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>84245</v>
+        <v>84580</v>
       </c>
       <c r="D47" t="n">
-        <v>27320</v>
+        <v>27390</v>
       </c>
       <c r="E47" t="n">
-        <v>226437908</v>
+        <v>228218502</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33005</v>
+        <v>33139</v>
       </c>
       <c r="D48" t="n">
-        <v>10981</v>
+        <v>11005</v>
       </c>
       <c r="E48" t="n">
-        <v>111798145</v>
+        <v>112560856</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11164</v>
+        <v>11228</v>
       </c>
       <c r="D49" t="n">
-        <v>3810</v>
+        <v>3822</v>
       </c>
       <c r="E49" t="n">
-        <v>46771189</v>
+        <v>47211340</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4287</v>
+        <v>4323</v>
       </c>
       <c r="D50" t="n">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="E50" t="n">
-        <v>31617756</v>
+        <v>31846858</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="D51" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E51" t="n">
-        <v>14935293</v>
+        <v>14972269</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30051</v>
+        <v>30264</v>
       </c>
       <c r="D53" t="n">
-        <v>10547</v>
+        <v>10621</v>
       </c>
       <c r="E53" t="n">
-        <v>59493497</v>
+        <v>60262174</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2830</v>
+        <v>2840</v>
       </c>
       <c r="D54" t="n">
         <v>771</v>
       </c>
       <c r="E54" t="n">
-        <v>4819045</v>
+        <v>4841008</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9363</v>
+        <v>9372</v>
       </c>
       <c r="D55" t="n">
         <v>2731</v>
       </c>
       <c r="E55" t="n">
-        <v>16329971</v>
+        <v>16347240</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3132</v>
+        <v>3140</v>
       </c>
       <c r="D56" t="n">
         <v>991</v>
       </c>
       <c r="E56" t="n">
-        <v>5964070</v>
+        <v>6003869</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D57" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E57" t="n">
-        <v>2391219</v>
+        <v>2400237</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9925</v>
+        <v>9959</v>
       </c>
       <c r="D61" t="n">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="E61" t="n">
-        <v>15351186</v>
+        <v>15433327</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="D62" t="n">
         <v>368</v>
       </c>
       <c r="E62" t="n">
-        <v>4235847</v>
+        <v>4243574</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4477</v>
+        <v>4486</v>
       </c>
       <c r="D63" t="n">
         <v>942</v>
       </c>
       <c r="E63" t="n">
-        <v>9855503</v>
+        <v>9879079</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="D64" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E64" t="n">
-        <v>4245271</v>
+        <v>4251271</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D65" t="n">
         <v>139</v>
       </c>
       <c r="E65" t="n">
-        <v>1369250</v>
+        <v>1373750</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2913</v>
+        <v>2920</v>
       </c>
       <c r="D68" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E68" t="n">
-        <v>5793092</v>
+        <v>5808371</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24763</v>
+        <v>24843</v>
       </c>
       <c r="D69" t="n">
-        <v>7261</v>
+        <v>7268</v>
       </c>
       <c r="E69" t="n">
-        <v>53053987</v>
+        <v>53365330</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>72504</v>
+        <v>72753</v>
       </c>
       <c r="D70" t="n">
-        <v>22162</v>
+        <v>22182</v>
       </c>
       <c r="E70" t="n">
-        <v>186047916</v>
+        <v>187252989</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>27098</v>
+        <v>27225</v>
       </c>
       <c r="D71" t="n">
-        <v>8678</v>
+        <v>8695</v>
       </c>
       <c r="E71" t="n">
-        <v>90748653</v>
+        <v>91592616</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8749</v>
+        <v>8796</v>
       </c>
       <c r="D72" t="n">
-        <v>3018</v>
+        <v>3023</v>
       </c>
       <c r="E72" t="n">
-        <v>34755092</v>
+        <v>35073183</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3118</v>
+        <v>3138</v>
       </c>
       <c r="D73" t="n">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="E73" t="n">
-        <v>21151007</v>
+        <v>21315447</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="D74" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E74" t="n">
-        <v>12573228</v>
+        <v>12617728</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23017</v>
+        <v>23081</v>
       </c>
       <c r="D79" t="n">
-        <v>7031</v>
+        <v>7035</v>
       </c>
       <c r="E79" t="n">
-        <v>37184813</v>
+        <v>37322083</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>91224</v>
+        <v>91538</v>
       </c>
       <c r="D80" t="n">
-        <v>23739</v>
+        <v>23767</v>
       </c>
       <c r="E80" t="n">
-        <v>204332149</v>
+        <v>205703446</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>247872</v>
+        <v>248664</v>
       </c>
       <c r="D81" t="n">
-        <v>68242</v>
+        <v>68312</v>
       </c>
       <c r="E81" t="n">
-        <v>626775760</v>
+        <v>630832683</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>114905</v>
+        <v>115373</v>
       </c>
       <c r="D82" t="n">
-        <v>32613</v>
+        <v>32672</v>
       </c>
       <c r="E82" t="n">
-        <v>391952951</v>
+        <v>395184644</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>43823</v>
+        <v>44051</v>
       </c>
       <c r="D83" t="n">
-        <v>12848</v>
+        <v>12874</v>
       </c>
       <c r="E83" t="n">
-        <v>196494990</v>
+        <v>198110301</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17814</v>
+        <v>17931</v>
       </c>
       <c r="D84" t="n">
-        <v>6104</v>
+        <v>6116</v>
       </c>
       <c r="E84" t="n">
-        <v>130711609</v>
+        <v>131709361</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4160</v>
+        <v>4213</v>
       </c>
       <c r="D85" t="n">
-        <v>1888</v>
+        <v>1900</v>
       </c>
       <c r="E85" t="n">
-        <v>70958608</v>
+        <v>71405321</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D86" t="n">
         <v>151</v>
       </c>
       <c r="E86" t="n">
-        <v>9673565</v>
+        <v>9686565</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>86121</v>
+        <v>86360</v>
       </c>
       <c r="D92" t="n">
-        <v>22074</v>
+        <v>22087</v>
       </c>
       <c r="E92" t="n">
-        <v>143466388</v>
+        <v>144038248</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5853</v>
+        <v>5861</v>
       </c>
       <c r="D93" t="n">
         <v>1883</v>
       </c>
       <c r="E93" t="n">
-        <v>9435822</v>
+        <v>9470464</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13940</v>
+        <v>13957</v>
       </c>
       <c r="D94" t="n">
         <v>4929</v>
       </c>
       <c r="E94" t="n">
-        <v>23029857</v>
+        <v>23066564</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4442</v>
+        <v>4444</v>
       </c>
       <c r="D95" t="n">
         <v>1825</v>
       </c>
       <c r="E95" t="n">
-        <v>7680912</v>
+        <v>7692412</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D96" t="n">
         <v>674</v>
       </c>
       <c r="E96" t="n">
-        <v>2978944</v>
+        <v>2980444</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D97" t="n">
         <v>169</v>
       </c>
       <c r="E97" t="n">
-        <v>1865724</v>
+        <v>1875724</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6587</v>
+        <v>6592</v>
       </c>
       <c r="D100" t="n">
         <v>2047</v>
       </c>
       <c r="E100" t="n">
-        <v>9115788</v>
+        <v>9122108</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2431</v>
+        <v>2440</v>
       </c>
       <c r="D101" t="n">
         <v>679</v>
       </c>
       <c r="E101" t="n">
-        <v>4712029</v>
+        <v>4730867</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7704</v>
+        <v>7727</v>
       </c>
       <c r="D102" t="n">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="E102" t="n">
-        <v>16265239</v>
+        <v>16369799</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="D103" t="n">
         <v>926</v>
       </c>
       <c r="E103" t="n">
-        <v>6790940</v>
+        <v>6820940</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="D104" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E104" t="n">
-        <v>2900038</v>
+        <v>2970704</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D105" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" t="n">
-        <v>1413575</v>
+        <v>1425075</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D106" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E106" t="n">
-        <v>522842</v>
+        <v>532842</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5241</v>
+        <v>5262</v>
       </c>
       <c r="D108" t="n">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E108" t="n">
-        <v>7822219</v>
+        <v>7861487</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D109" t="n">
         <v>235</v>
       </c>
       <c r="E109" t="n">
-        <v>2526386</v>
+        <v>2537886</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D111" t="n">
         <v>61</v>
       </c>
       <c r="E111" t="n">
-        <v>639584</v>
+        <v>642584</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>24993</v>
+        <v>37993</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17855</v>
+        <v>17920</v>
       </c>
       <c r="D115" t="n">
-        <v>5113</v>
+        <v>5120</v>
       </c>
       <c r="E115" t="n">
-        <v>41660599</v>
+        <v>41930707</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>47286</v>
+        <v>47435</v>
       </c>
       <c r="D116" t="n">
-        <v>14730</v>
+        <v>14739</v>
       </c>
       <c r="E116" t="n">
-        <v>127322650</v>
+        <v>128140640</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>17161</v>
+        <v>17230</v>
       </c>
       <c r="D117" t="n">
-        <v>5588</v>
+        <v>5597</v>
       </c>
       <c r="E117" t="n">
-        <v>58373280</v>
+        <v>58815357</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5490</v>
+        <v>5510</v>
       </c>
       <c r="D118" t="n">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="E118" t="n">
-        <v>23146363</v>
+        <v>23310362</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1926</v>
+        <v>1943</v>
       </c>
       <c r="D119" t="n">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="E119" t="n">
-        <v>14053137</v>
+        <v>14211162</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D120" t="n">
         <v>233</v>
       </c>
       <c r="E120" t="n">
-        <v>6825986</v>
+        <v>6836652</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>14557</v>
+        <v>14607</v>
       </c>
       <c r="D122" t="n">
-        <v>4530</v>
+        <v>4536</v>
       </c>
       <c r="E122" t="n">
-        <v>23612191</v>
+        <v>23727885</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>49259</v>
+        <v>49419</v>
       </c>
       <c r="D123" t="n">
-        <v>14448</v>
+        <v>14460</v>
       </c>
       <c r="E123" t="n">
-        <v>114014838</v>
+        <v>114696668</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>104670</v>
+        <v>104938</v>
       </c>
       <c r="D124" t="n">
-        <v>33582</v>
+        <v>33601</v>
       </c>
       <c r="E124" t="n">
-        <v>270475123</v>
+        <v>271892810</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>36249</v>
+        <v>36393</v>
       </c>
       <c r="D125" t="n">
-        <v>12233</v>
+        <v>12249</v>
       </c>
       <c r="E125" t="n">
-        <v>119237784</v>
+        <v>120230422</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11939</v>
+        <v>11990</v>
       </c>
       <c r="D126" t="n">
-        <v>4234</v>
+        <v>4247</v>
       </c>
       <c r="E126" t="n">
-        <v>49315761</v>
+        <v>49660933</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4247</v>
+        <v>4286</v>
       </c>
       <c r="D127" t="n">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="E127" t="n">
-        <v>30730794</v>
+        <v>31016055</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1057</v>
+        <v>1071</v>
       </c>
       <c r="D128" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E128" t="n">
-        <v>16677200</v>
+        <v>16789531</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>37943</v>
+        <v>38055</v>
       </c>
       <c r="D132" t="n">
-        <v>12415</v>
+        <v>12422</v>
       </c>
       <c r="E132" t="n">
-        <v>60514032</v>
+        <v>60728670</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>59883</v>
+        <v>60076</v>
       </c>
       <c r="D133" t="n">
-        <v>16780</v>
+        <v>16789</v>
       </c>
       <c r="E133" t="n">
-        <v>140308625</v>
+        <v>141227746</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>124193</v>
+        <v>124584</v>
       </c>
       <c r="D134" t="n">
-        <v>37867</v>
+        <v>37896</v>
       </c>
       <c r="E134" t="n">
-        <v>318258042</v>
+        <v>320038721</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5878,13 +5878,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>41065</v>
+        <v>41214</v>
       </c>
       <c r="D135" t="n">
-        <v>13269</v>
+        <v>13281</v>
       </c>
       <c r="E135" t="n">
-        <v>137867490</v>
+        <v>138833336</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5919,13 +5919,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>12594</v>
+        <v>12651</v>
       </c>
       <c r="D136" t="n">
-        <v>4323</v>
+        <v>4332</v>
       </c>
       <c r="E136" t="n">
-        <v>51535966</v>
+        <v>51979428</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4485</v>
+        <v>4510</v>
       </c>
       <c r="D137" t="n">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="E137" t="n">
-        <v>31026270</v>
+        <v>31240602</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="D138" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E138" t="n">
-        <v>15790651</v>
+        <v>15881811</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>47753</v>
+        <v>47913</v>
       </c>
       <c r="D141" t="n">
-        <v>14917</v>
+        <v>14929</v>
       </c>
       <c r="E141" t="n">
-        <v>74356051</v>
+        <v>74700698</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21494</v>
+        <v>21568</v>
       </c>
       <c r="D142" t="n">
-        <v>6322</v>
+        <v>6329</v>
       </c>
       <c r="E142" t="n">
-        <v>50014211</v>
+        <v>50336579</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>52291</v>
+        <v>52434</v>
       </c>
       <c r="D143" t="n">
-        <v>16613</v>
+        <v>16630</v>
       </c>
       <c r="E143" t="n">
-        <v>142247392</v>
+        <v>143046872</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>20128</v>
+        <v>20218</v>
       </c>
       <c r="D144" t="n">
-        <v>6794</v>
+        <v>6809</v>
       </c>
       <c r="E144" t="n">
-        <v>69243845</v>
+        <v>69838401</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5997</v>
+        <v>6033</v>
       </c>
       <c r="D145" t="n">
-        <v>2228</v>
+        <v>2240</v>
       </c>
       <c r="E145" t="n">
-        <v>25118313</v>
+        <v>25334306</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2113</v>
+        <v>2125</v>
       </c>
       <c r="D146" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E146" t="n">
-        <v>16421283</v>
+        <v>16479491</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D147" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E147" t="n">
-        <v>10135051</v>
+        <v>10197217</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D148" t="n">
         <v>17</v>
       </c>
       <c r="E148" t="n">
-        <v>683098</v>
+        <v>694598</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>15878</v>
+        <v>15922</v>
       </c>
       <c r="D150" t="n">
-        <v>5080</v>
+        <v>5084</v>
       </c>
       <c r="E150" t="n">
-        <v>25767389</v>
+        <v>25864792</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>58919</v>
+        <v>59110</v>
       </c>
       <c r="D151" t="n">
-        <v>16282</v>
+        <v>16293</v>
       </c>
       <c r="E151" t="n">
-        <v>136890765</v>
+        <v>137785892</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>136869</v>
+        <v>137320</v>
       </c>
       <c r="D152" t="n">
-        <v>39604</v>
+        <v>39640</v>
       </c>
       <c r="E152" t="n">
-        <v>360404051</v>
+        <v>362760526</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>44520</v>
+        <v>44702</v>
       </c>
       <c r="D153" t="n">
-        <v>13418</v>
+        <v>13443</v>
       </c>
       <c r="E153" t="n">
-        <v>155976472</v>
+        <v>157119568</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>13864</v>
+        <v>13919</v>
       </c>
       <c r="D154" t="n">
-        <v>4389</v>
+        <v>4398</v>
       </c>
       <c r="E154" t="n">
-        <v>62542849</v>
+        <v>62948977</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5475</v>
+        <v>5501</v>
       </c>
       <c r="D155" t="n">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="E155" t="n">
-        <v>39767676</v>
+        <v>39973374</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="D156" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E156" t="n">
-        <v>22144432</v>
+        <v>22198886</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D157" t="n">
         <v>56</v>
       </c>
       <c r="E157" t="n">
-        <v>3049042</v>
+        <v>3059042</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>44791</v>
+        <v>44928</v>
       </c>
       <c r="D159" t="n">
-        <v>13212</v>
+        <v>13218</v>
       </c>
       <c r="E159" t="n">
-        <v>72261419</v>
+        <v>72599757</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62370</v>
+        <v>62825</v>
       </c>
       <c r="D2" t="n">
-        <v>18346</v>
+        <v>18363</v>
       </c>
       <c r="E2" t="n">
-        <v>141435930</v>
+        <v>143295276</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>151463</v>
+        <v>152673</v>
       </c>
       <c r="D3" t="n">
-        <v>45856</v>
+        <v>45912</v>
       </c>
       <c r="E3" t="n">
-        <v>411667777</v>
+        <v>418953953</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56544</v>
+        <v>57171</v>
       </c>
       <c r="D4" t="n">
-        <v>17850</v>
+        <v>17886</v>
       </c>
       <c r="E4" t="n">
-        <v>201980629</v>
+        <v>207229509</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18787</v>
+        <v>19072</v>
       </c>
       <c r="D5" t="n">
-        <v>6120</v>
+        <v>6131</v>
       </c>
       <c r="E5" t="n">
-        <v>85769635</v>
+        <v>89220314</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7573</v>
+        <v>7794</v>
       </c>
       <c r="D6" t="n">
-        <v>2839</v>
+        <v>2863</v>
       </c>
       <c r="E6" t="n">
-        <v>54903025</v>
+        <v>59523641</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1837</v>
+        <v>1897</v>
       </c>
       <c r="D7" t="n">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="E7" t="n">
-        <v>27914834</v>
+        <v>30268273</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>5257841</v>
+        <v>5491475</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>1829389</v>
+        <v>1839389</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66208</v>
+        <v>66816</v>
       </c>
       <c r="D12" t="n">
-        <v>19934</v>
+        <v>19950</v>
       </c>
       <c r="E12" t="n">
-        <v>111809839</v>
+        <v>113433256</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15754</v>
+        <v>15879</v>
       </c>
       <c r="D13" t="n">
-        <v>4664</v>
+        <v>4669</v>
       </c>
       <c r="E13" t="n">
-        <v>35662621</v>
+        <v>36285514</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42527</v>
+        <v>42871</v>
       </c>
       <c r="D14" t="n">
-        <v>13104</v>
+        <v>13110</v>
       </c>
       <c r="E14" t="n">
-        <v>113968187</v>
+        <v>116220166</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14509</v>
+        <v>14657</v>
       </c>
       <c r="D15" t="n">
-        <v>4712</v>
+        <v>4718</v>
       </c>
       <c r="E15" t="n">
-        <v>49429667</v>
+        <v>50725382</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4358</v>
+        <v>4414</v>
       </c>
       <c r="D16" t="n">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="E16" t="n">
-        <v>18245603</v>
+        <v>18919420</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1589</v>
+        <v>1621</v>
       </c>
       <c r="D17" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E17" t="n">
-        <v>11065008</v>
+        <v>11648192</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D18" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E18" t="n">
-        <v>6405546</v>
+        <v>7159278</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>327190</v>
+        <v>329790</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15700</v>
+        <v>15814</v>
       </c>
       <c r="D21" t="n">
-        <v>4897</v>
+        <v>4902</v>
       </c>
       <c r="E21" t="n">
-        <v>25716044</v>
+        <v>26028458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22062</v>
+        <v>22261</v>
       </c>
       <c r="D22" t="n">
-        <v>6363</v>
+        <v>6366</v>
       </c>
       <c r="E22" t="n">
-        <v>54030496</v>
+        <v>55319846</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52514</v>
+        <v>53016</v>
       </c>
       <c r="D23" t="n">
-        <v>16058</v>
+        <v>16082</v>
       </c>
       <c r="E23" t="n">
-        <v>149017956</v>
+        <v>152620307</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18696</v>
+        <v>18940</v>
       </c>
       <c r="D24" t="n">
-        <v>6226</v>
+        <v>6239</v>
       </c>
       <c r="E24" t="n">
-        <v>66853165</v>
+        <v>69189031</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5758</v>
+        <v>5852</v>
       </c>
       <c r="D25" t="n">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="E25" t="n">
-        <v>25250031</v>
+        <v>26460479</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2102</v>
+        <v>2173</v>
       </c>
       <c r="D26" t="n">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="E26" t="n">
-        <v>15087407</v>
+        <v>16433322</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E27" t="n">
-        <v>6626308</v>
+        <v>7432898</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17327</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5487</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>28287032</v>
+        <v>240476</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1552,12 +1552,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -1573,32 +1573,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12427</v>
+        <v>17459</v>
       </c>
       <c r="D30" t="n">
-        <v>3686</v>
+        <v>5490</v>
       </c>
       <c r="E30" t="n">
-        <v>28228485</v>
+        <v>28734247</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>36065</v>
+        <v>12510</v>
       </c>
       <c r="D31" t="n">
-        <v>11332</v>
+        <v>3691</v>
       </c>
       <c r="E31" t="n">
-        <v>93660253</v>
+        <v>28617014</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1634,12 +1634,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13328</v>
+        <v>36329</v>
       </c>
       <c r="D32" t="n">
-        <v>4442</v>
+        <v>11342</v>
       </c>
       <c r="E32" t="n">
-        <v>44293273</v>
+        <v>95340502</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1675,12 +1675,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3756</v>
+        <v>13443</v>
       </c>
       <c r="D33" t="n">
-        <v>1311</v>
+        <v>4451</v>
       </c>
       <c r="E33" t="n">
-        <v>15287776</v>
+        <v>45243959</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1331</v>
+        <v>3805</v>
       </c>
       <c r="D34" t="n">
-        <v>530</v>
+        <v>1317</v>
       </c>
       <c r="E34" t="n">
-        <v>9647567</v>
+        <v>15807801</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1757,12 +1757,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>306</v>
+        <v>1369</v>
       </c>
       <c r="D35" t="n">
-        <v>150</v>
+        <v>538</v>
       </c>
       <c r="E35" t="n">
-        <v>3512691</v>
+        <v>10407334</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1798,12 +1798,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E36" t="n">
-        <v>645479</v>
+        <v>4075730</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12539</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>3879</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>20282189</v>
+        <v>645479</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -1901,32 +1901,32 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5774</v>
+        <v>12633</v>
       </c>
       <c r="D38" t="n">
-        <v>1467</v>
+        <v>3880</v>
       </c>
       <c r="E38" t="n">
-        <v>15414734</v>
+        <v>20542841</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13290</v>
+        <v>5836</v>
       </c>
       <c r="D39" t="n">
-        <v>3677</v>
+        <v>1468</v>
       </c>
       <c r="E39" t="n">
-        <v>36497355</v>
+        <v>15767303</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1962,12 +1962,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5720</v>
+        <v>13414</v>
       </c>
       <c r="D40" t="n">
-        <v>1687</v>
+        <v>3681</v>
       </c>
       <c r="E40" t="n">
-        <v>20850970</v>
+        <v>37221857</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1657</v>
+        <v>5794</v>
       </c>
       <c r="D41" t="n">
-        <v>561</v>
+        <v>1690</v>
       </c>
       <c r="E41" t="n">
-        <v>7657809</v>
+        <v>21460967</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2044,12 +2044,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>607</v>
+        <v>1698</v>
       </c>
       <c r="D42" t="n">
-        <v>248</v>
+        <v>564</v>
       </c>
       <c r="E42" t="n">
-        <v>4532694</v>
+        <v>8101417</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2085,12 +2085,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>108</v>
+        <v>620</v>
       </c>
       <c r="D43" t="n">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="E43" t="n">
-        <v>1499388</v>
+        <v>4743157</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E44" t="n">
-        <v>437749</v>
+        <v>1626928</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2167,12 +2167,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3960</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>1193</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>6344137</v>
+        <v>437749</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28507</v>
+        <v>3997</v>
       </c>
       <c r="D46" t="n">
-        <v>8970</v>
+        <v>1194</v>
       </c>
       <c r="E46" t="n">
-        <v>65665965</v>
+        <v>6412636</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>84580</v>
+        <v>28737</v>
       </c>
       <c r="D47" t="n">
-        <v>27390</v>
+        <v>8986</v>
       </c>
       <c r="E47" t="n">
-        <v>228218502</v>
+        <v>66639772</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33139</v>
+        <v>85327</v>
       </c>
       <c r="D48" t="n">
-        <v>11005</v>
+        <v>27429</v>
       </c>
       <c r="E48" t="n">
-        <v>112560856</v>
+        <v>232795495</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11228</v>
+        <v>33531</v>
       </c>
       <c r="D49" t="n">
-        <v>3822</v>
+        <v>11023</v>
       </c>
       <c r="E49" t="n">
-        <v>47211340</v>
+        <v>115957517</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4323</v>
+        <v>11445</v>
       </c>
       <c r="D50" t="n">
-        <v>1601</v>
+        <v>3839</v>
       </c>
       <c r="E50" t="n">
-        <v>31846858</v>
+        <v>49856067</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>929</v>
+        <v>4442</v>
       </c>
       <c r="D51" t="n">
-        <v>454</v>
+        <v>1611</v>
       </c>
       <c r="E51" t="n">
-        <v>14972269</v>
+        <v>34127690</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2454,12 +2454,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>53</v>
+        <v>959</v>
       </c>
       <c r="D52" t="n">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="E52" t="n">
-        <v>2388427</v>
+        <v>15948179</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2495,12 +2495,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30264</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
-        <v>10621</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
-        <v>60262174</v>
+        <v>2409927</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -2557,32 +2557,32 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2840</v>
+        <v>30566</v>
       </c>
       <c r="D54" t="n">
-        <v>771</v>
+        <v>10656</v>
       </c>
       <c r="E54" t="n">
-        <v>4841008</v>
+        <v>61084173</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9372</v>
+        <v>2847</v>
       </c>
       <c r="D55" t="n">
-        <v>2731</v>
+        <v>771</v>
       </c>
       <c r="E55" t="n">
-        <v>16347240</v>
+        <v>4860354</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3140</v>
+        <v>9407</v>
       </c>
       <c r="D56" t="n">
-        <v>991</v>
+        <v>2734</v>
       </c>
       <c r="E56" t="n">
-        <v>6003869</v>
+        <v>16439999</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1045</v>
+        <v>3147</v>
       </c>
       <c r="D57" t="n">
-        <v>354</v>
+        <v>991</v>
       </c>
       <c r="E57" t="n">
-        <v>2400237</v>
+        <v>6042957</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2700,12 +2700,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>317</v>
+        <v>1054</v>
       </c>
       <c r="D58" t="n">
-        <v>100</v>
+        <v>354</v>
       </c>
       <c r="E58" t="n">
-        <v>862475</v>
+        <v>2449248</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="D59" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>525121</v>
+        <v>862475</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2782,12 +2782,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E60" t="n">
-        <v>146974</v>
+        <v>525121</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9959</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>2575</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>15433327</v>
+        <v>146974</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2864,12 +2864,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -2885,32 +2885,32 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1897</v>
+        <v>10025</v>
       </c>
       <c r="D62" t="n">
-        <v>368</v>
+        <v>2576</v>
       </c>
       <c r="E62" t="n">
-        <v>4243574</v>
+        <v>15546012</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4486</v>
+        <v>1903</v>
       </c>
       <c r="D63" t="n">
-        <v>942</v>
+        <v>368</v>
       </c>
       <c r="E63" t="n">
-        <v>9879079</v>
+        <v>4252574</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1791</v>
+        <v>4512</v>
       </c>
       <c r="D64" t="n">
-        <v>401</v>
+        <v>942</v>
       </c>
       <c r="E64" t="n">
-        <v>4251271</v>
+        <v>9932352</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>590</v>
+        <v>1803</v>
       </c>
       <c r="D65" t="n">
-        <v>139</v>
+        <v>402</v>
       </c>
       <c r="E65" t="n">
-        <v>1373750</v>
+        <v>4277771</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3028,12 +3028,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>218</v>
+        <v>594</v>
       </c>
       <c r="D66" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E66" t="n">
-        <v>526021</v>
+        <v>1407090</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3069,12 +3069,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E67" t="n">
-        <v>147500</v>
+        <v>526021</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2920</v>
+        <v>48</v>
       </c>
       <c r="D68" t="n">
-        <v>549</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5808371</v>
+        <v>157500</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3172,32 +3172,32 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24843</v>
+        <v>2930</v>
       </c>
       <c r="D69" t="n">
-        <v>7268</v>
+        <v>550</v>
       </c>
       <c r="E69" t="n">
-        <v>53365330</v>
+        <v>5826110</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>72753</v>
+        <v>25007</v>
       </c>
       <c r="D70" t="n">
-        <v>22182</v>
+        <v>7278</v>
       </c>
       <c r="E70" t="n">
-        <v>187252989</v>
+        <v>53994053</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3233,12 +3233,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>27225</v>
+        <v>73272</v>
       </c>
       <c r="D71" t="n">
-        <v>8695</v>
+        <v>22197</v>
       </c>
       <c r="E71" t="n">
-        <v>91592616</v>
+        <v>190325044</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8796</v>
+        <v>27478</v>
       </c>
       <c r="D72" t="n">
-        <v>3023</v>
+        <v>8708</v>
       </c>
       <c r="E72" t="n">
-        <v>35073183</v>
+        <v>93829216</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3315,12 +3315,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3138</v>
+        <v>8914</v>
       </c>
       <c r="D73" t="n">
-        <v>1200</v>
+        <v>3033</v>
       </c>
       <c r="E73" t="n">
-        <v>21315447</v>
+        <v>36378618</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3356,12 +3356,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>871</v>
+        <v>3208</v>
       </c>
       <c r="D74" t="n">
-        <v>444</v>
+        <v>1208</v>
       </c>
       <c r="E74" t="n">
-        <v>12617728</v>
+        <v>22609011</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>47</v>
+        <v>915</v>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>461</v>
       </c>
       <c r="E75" t="n">
-        <v>1256271</v>
+        <v>14820555</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3438,12 +3438,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E76" t="n">
-        <v>431500</v>
+        <v>1267303</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>400490</v>
+        <v>431500</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3520,12 +3520,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>200 à 249 salariés</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>221500</v>
+        <v>400490</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>250 à 499 salariés</t>
+          <t>200 à 249 salariés</t>
         </is>
       </c>
     </row>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23081</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7035</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>37322083</v>
+        <v>221500</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>250 à 499 salariés</t>
         </is>
       </c>
     </row>
@@ -3623,32 +3623,32 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>91538</v>
+        <v>23268</v>
       </c>
       <c r="D80" t="n">
-        <v>23767</v>
+        <v>7039</v>
       </c>
       <c r="E80" t="n">
-        <v>205703446</v>
+        <v>37816055</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>248664</v>
+        <v>92130</v>
       </c>
       <c r="D81" t="n">
-        <v>68312</v>
+        <v>23797</v>
       </c>
       <c r="E81" t="n">
-        <v>630832683</v>
+        <v>207729930</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3684,12 +3684,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>115373</v>
+        <v>250254</v>
       </c>
       <c r="D82" t="n">
-        <v>32672</v>
+        <v>68395</v>
       </c>
       <c r="E82" t="n">
-        <v>395184644</v>
+        <v>638790884</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3725,12 +3725,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>44051</v>
+        <v>116320</v>
       </c>
       <c r="D83" t="n">
-        <v>12874</v>
+        <v>32738</v>
       </c>
       <c r="E83" t="n">
-        <v>198110301</v>
+        <v>403270180</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17931</v>
+        <v>44672</v>
       </c>
       <c r="D84" t="n">
-        <v>6116</v>
+        <v>12901</v>
       </c>
       <c r="E84" t="n">
-        <v>131709361</v>
+        <v>205691476</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4213</v>
+        <v>18395</v>
       </c>
       <c r="D85" t="n">
-        <v>1900</v>
+        <v>6163</v>
       </c>
       <c r="E85" t="n">
-        <v>71405321</v>
+        <v>140671751</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3848,12 +3848,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>276</v>
+        <v>4350</v>
       </c>
       <c r="D86" t="n">
-        <v>151</v>
+        <v>1923</v>
       </c>
       <c r="E86" t="n">
-        <v>9686565</v>
+        <v>76820379</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3889,12 +3889,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="D87" t="n">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="E87" t="n">
-        <v>3800613</v>
+        <v>10699574</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E88" t="n">
-        <v>968961</v>
+        <v>3954972</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>200 à 249 salariés</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
-        <v>1279700</v>
+        <v>968961</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4012,12 +4012,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>250 à 499 salariés</t>
+          <t>200 à 249 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>596314</v>
+        <v>1479700</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4053,12 +4053,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>500 à 999 salariés</t>
+          <t>250 à 499 salariés</t>
         </is>
       </c>
     </row>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>410851</v>
+        <v>596314</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1 000 à 1 999 salariés</t>
+          <t>500 à 999 salariés</t>
         </is>
       </c>
     </row>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>86360</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>22087</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>144038248</v>
+        <v>410851</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4135,12 +4135,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>1 000 à 1 999 salariés</t>
         </is>
       </c>
     </row>
@@ -4156,32 +4156,32 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5861</v>
+        <v>86982</v>
       </c>
       <c r="D93" t="n">
-        <v>1883</v>
+        <v>22106</v>
       </c>
       <c r="E93" t="n">
-        <v>9470464</v>
+        <v>145574607</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13957</v>
+        <v>5878</v>
       </c>
       <c r="D94" t="n">
-        <v>4929</v>
+        <v>1883</v>
       </c>
       <c r="E94" t="n">
-        <v>23066564</v>
+        <v>9514222</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4217,12 +4217,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4444</v>
+        <v>13978</v>
       </c>
       <c r="D95" t="n">
-        <v>1825</v>
+        <v>4929</v>
       </c>
       <c r="E95" t="n">
-        <v>7692412</v>
+        <v>23134276</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4258,12 +4258,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1588</v>
+        <v>4455</v>
       </c>
       <c r="D96" t="n">
-        <v>674</v>
+        <v>1827</v>
       </c>
       <c r="E96" t="n">
-        <v>2980444</v>
+        <v>7751735</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4299,12 +4299,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>462</v>
+        <v>1592</v>
       </c>
       <c r="D97" t="n">
-        <v>169</v>
+        <v>675</v>
       </c>
       <c r="E97" t="n">
-        <v>1875724</v>
+        <v>3011944</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>67</v>
+        <v>467</v>
       </c>
       <c r="D98" t="n">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="E98" t="n">
-        <v>500716</v>
+        <v>1919827</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E99" t="n">
-        <v>35000</v>
+        <v>510716</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4422,12 +4422,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6592</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>2047</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>9122108</v>
+        <v>35000</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4463,12 +4463,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -4484,32 +4484,32 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2440</v>
+        <v>6612</v>
       </c>
       <c r="D101" t="n">
-        <v>679</v>
+        <v>2047</v>
       </c>
       <c r="E101" t="n">
-        <v>4730867</v>
+        <v>9165984</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7727</v>
+        <v>2448</v>
       </c>
       <c r="D102" t="n">
-        <v>2209</v>
+        <v>680</v>
       </c>
       <c r="E102" t="n">
-        <v>16369799</v>
+        <v>4751254</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4545,12 +4545,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2755</v>
+        <v>7758</v>
       </c>
       <c r="D103" t="n">
-        <v>926</v>
+        <v>2209</v>
       </c>
       <c r="E103" t="n">
-        <v>6820940</v>
+        <v>16498698</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1049</v>
+        <v>2769</v>
       </c>
       <c r="D104" t="n">
-        <v>354</v>
+        <v>927</v>
       </c>
       <c r="E104" t="n">
-        <v>2970704</v>
+        <v>6890023</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4627,12 +4627,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>374</v>
+        <v>1049</v>
       </c>
       <c r="D105" t="n">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="E105" t="n">
-        <v>1425075</v>
+        <v>2970704</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="D106" t="n">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="E106" t="n">
-        <v>532842</v>
+        <v>1466765</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4709,12 +4709,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E107" t="n">
-        <v>71774</v>
+        <v>532842</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4750,12 +4750,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5262</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>1399</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>7861487</v>
+        <v>138230</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4791,12 +4791,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -4812,32 +4812,32 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1072</v>
+        <v>5278</v>
       </c>
       <c r="D109" t="n">
-        <v>235</v>
+        <v>1399</v>
       </c>
       <c r="E109" t="n">
-        <v>2537886</v>
+        <v>7891938</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>755</v>
+        <v>1074</v>
       </c>
       <c r="D110" t="n">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="E110" t="n">
-        <v>2006392</v>
+        <v>2549386</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>267</v>
+        <v>757</v>
       </c>
       <c r="D111" t="n">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="E111" t="n">
-        <v>642584</v>
+        <v>2013892</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4914,12 +4914,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E112" t="n">
-        <v>148500</v>
+        <v>642584</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4976,13 +4976,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E113" t="n">
-        <v>139623</v>
+        <v>148500</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>37993</v>
+        <v>139623</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5037,12 +5037,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5058,32 +5058,32 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17920</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>5120</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>41930707</v>
+        <v>37993</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>47435</v>
+        <v>18044</v>
       </c>
       <c r="D116" t="n">
-        <v>14739</v>
+        <v>5124</v>
       </c>
       <c r="E116" t="n">
-        <v>128140640</v>
+        <v>42490599</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>17230</v>
+        <v>47768</v>
       </c>
       <c r="D117" t="n">
-        <v>5597</v>
+        <v>14752</v>
       </c>
       <c r="E117" t="n">
-        <v>58815357</v>
+        <v>130429808</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5160,12 +5160,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5510</v>
+        <v>17421</v>
       </c>
       <c r="D118" t="n">
-        <v>1928</v>
+        <v>5608</v>
       </c>
       <c r="E118" t="n">
-        <v>23310362</v>
+        <v>60549130</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1943</v>
+        <v>5600</v>
       </c>
       <c r="D119" t="n">
-        <v>751</v>
+        <v>1933</v>
       </c>
       <c r="E119" t="n">
-        <v>14211162</v>
+        <v>24474348</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5242,12 +5242,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>475</v>
+        <v>1993</v>
       </c>
       <c r="D120" t="n">
-        <v>233</v>
+        <v>754</v>
       </c>
       <c r="E120" t="n">
-        <v>6836652</v>
+        <v>15316366</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5283,12 +5283,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>39</v>
+        <v>488</v>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="E121" t="n">
-        <v>813601</v>
+        <v>7184312</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5324,12 +5324,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>14607</v>
+        <v>39</v>
       </c>
       <c r="D122" t="n">
-        <v>4536</v>
+        <v>17</v>
       </c>
       <c r="E122" t="n">
-        <v>23727885</v>
+        <v>813601</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -5386,32 +5386,32 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>49419</v>
+        <v>14697</v>
       </c>
       <c r="D123" t="n">
-        <v>14460</v>
+        <v>4538</v>
       </c>
       <c r="E123" t="n">
-        <v>114696668</v>
+        <v>23970666</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>104938</v>
+        <v>49802</v>
       </c>
       <c r="D124" t="n">
-        <v>33601</v>
+        <v>14474</v>
       </c>
       <c r="E124" t="n">
-        <v>271892810</v>
+        <v>116673042</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5447,12 +5447,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>36393</v>
+        <v>105730</v>
       </c>
       <c r="D125" t="n">
-        <v>12249</v>
+        <v>33638</v>
       </c>
       <c r="E125" t="n">
-        <v>120230422</v>
+        <v>277178262</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5488,12 +5488,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11990</v>
+        <v>36760</v>
       </c>
       <c r="D126" t="n">
-        <v>4247</v>
+        <v>12270</v>
       </c>
       <c r="E126" t="n">
-        <v>49660933</v>
+        <v>123465563</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5529,12 +5529,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4286</v>
+        <v>12141</v>
       </c>
       <c r="D127" t="n">
-        <v>1681</v>
+        <v>4255</v>
       </c>
       <c r="E127" t="n">
-        <v>31016055</v>
+        <v>51481350</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1071</v>
+        <v>4375</v>
       </c>
       <c r="D128" t="n">
-        <v>531</v>
+        <v>1692</v>
       </c>
       <c r="E128" t="n">
-        <v>16789531</v>
+        <v>32586822</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5611,12 +5611,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>56</v>
+        <v>1102</v>
       </c>
       <c r="D129" t="n">
-        <v>34</v>
+        <v>540</v>
       </c>
       <c r="E129" t="n">
-        <v>1294042</v>
+        <v>17956920</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5652,12 +5652,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5673,13 +5673,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E130" t="n">
-        <v>459465</v>
+        <v>1515542</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5693,12 +5693,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E131" t="n">
-        <v>203000</v>
+        <v>459465</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5734,12 +5734,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>500 à 999 salariés</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>38055</v>
+        <v>3</v>
       </c>
       <c r="D132" t="n">
-        <v>12422</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>60728670</v>
+        <v>203000</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5775,12 +5775,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>500 à 999 salariés</t>
         </is>
       </c>
     </row>
@@ -5796,32 +5796,32 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>60076</v>
+        <v>38301</v>
       </c>
       <c r="D133" t="n">
-        <v>16789</v>
+        <v>12437</v>
       </c>
       <c r="E133" t="n">
-        <v>141227746</v>
+        <v>61400303</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>124584</v>
+        <v>60608</v>
       </c>
       <c r="D134" t="n">
-        <v>37896</v>
+        <v>16803</v>
       </c>
       <c r="E134" t="n">
-        <v>320038721</v>
+        <v>143786575</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5857,12 +5857,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5878,13 +5878,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>41214</v>
+        <v>125553</v>
       </c>
       <c r="D135" t="n">
-        <v>13281</v>
+        <v>37940</v>
       </c>
       <c r="E135" t="n">
-        <v>138833336</v>
+        <v>325564314</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5919,13 +5919,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>12651</v>
+        <v>41621</v>
       </c>
       <c r="D136" t="n">
-        <v>4332</v>
+        <v>13311</v>
       </c>
       <c r="E136" t="n">
-        <v>51979428</v>
+        <v>142184204</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4510</v>
+        <v>12851</v>
       </c>
       <c r="D137" t="n">
-        <v>1706</v>
+        <v>4348</v>
       </c>
       <c r="E137" t="n">
-        <v>31240602</v>
+        <v>54121163</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>961</v>
+        <v>4608</v>
       </c>
       <c r="D138" t="n">
-        <v>508</v>
+        <v>1717</v>
       </c>
       <c r="E138" t="n">
-        <v>15881811</v>
+        <v>33191306</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6021,12 +6021,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>81</v>
+        <v>994</v>
       </c>
       <c r="D139" t="n">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="E139" t="n">
-        <v>2489003</v>
+        <v>16771360</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6062,12 +6062,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -6083,13 +6083,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E140" t="n">
-        <v>206000</v>
+        <v>2490503</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6103,12 +6103,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>47913</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>14929</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>74700698</v>
+        <v>206000</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -6165,32 +6165,32 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21568</v>
+        <v>48236</v>
       </c>
       <c r="D142" t="n">
-        <v>6329</v>
+        <v>14945</v>
       </c>
       <c r="E142" t="n">
-        <v>50336579</v>
+        <v>75432533</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>52434</v>
+        <v>21714</v>
       </c>
       <c r="D143" t="n">
-        <v>16630</v>
+        <v>6334</v>
       </c>
       <c r="E143" t="n">
-        <v>143046872</v>
+        <v>51093244</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>20218</v>
+        <v>52833</v>
       </c>
       <c r="D144" t="n">
-        <v>6809</v>
+        <v>16644</v>
       </c>
       <c r="E144" t="n">
-        <v>69838401</v>
+        <v>146010503</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6267,12 +6267,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6033</v>
+        <v>20430</v>
       </c>
       <c r="D145" t="n">
-        <v>2240</v>
+        <v>6815</v>
       </c>
       <c r="E145" t="n">
-        <v>25334306</v>
+        <v>71797728</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2125</v>
+        <v>6111</v>
       </c>
       <c r="D146" t="n">
-        <v>910</v>
+        <v>2246</v>
       </c>
       <c r="E146" t="n">
-        <v>16479491</v>
+        <v>26260649</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6349,12 +6349,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>591</v>
+        <v>2179</v>
       </c>
       <c r="D147" t="n">
-        <v>315</v>
+        <v>920</v>
       </c>
       <c r="E147" t="n">
-        <v>10197217</v>
+        <v>17516173</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6390,12 +6390,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="D148" t="n">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="E148" t="n">
-        <v>694598</v>
+        <v>10922337</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6431,12 +6431,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E149" t="n">
-        <v>694794</v>
+        <v>827291</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6472,12 +6472,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>15922</v>
+        <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>5084</v>
+        <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>25864792</v>
+        <v>694794</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6513,12 +6513,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -6534,32 +6534,32 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>59110</v>
+        <v>16025</v>
       </c>
       <c r="D151" t="n">
-        <v>16293</v>
+        <v>5089</v>
       </c>
       <c r="E151" t="n">
-        <v>137785892</v>
+        <v>26120205</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>137320</v>
+        <v>59593</v>
       </c>
       <c r="D152" t="n">
-        <v>39640</v>
+        <v>16311</v>
       </c>
       <c r="E152" t="n">
-        <v>362760526</v>
+        <v>140114699</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>44702</v>
+        <v>138430</v>
       </c>
       <c r="D153" t="n">
-        <v>13443</v>
+        <v>39684</v>
       </c>
       <c r="E153" t="n">
-        <v>157119568</v>
+        <v>369194055</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6636,12 +6636,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>13919</v>
+        <v>45216</v>
       </c>
       <c r="D154" t="n">
-        <v>4398</v>
+        <v>13466</v>
       </c>
       <c r="E154" t="n">
-        <v>62948977</v>
+        <v>161595527</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6677,12 +6677,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5501</v>
+        <v>14128</v>
       </c>
       <c r="D155" t="n">
-        <v>1983</v>
+        <v>4411</v>
       </c>
       <c r="E155" t="n">
-        <v>39973374</v>
+        <v>65370407</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6718,12 +6718,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1332</v>
+        <v>5633</v>
       </c>
       <c r="D156" t="n">
-        <v>622</v>
+        <v>1990</v>
       </c>
       <c r="E156" t="n">
-        <v>22198886</v>
+        <v>42517885</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6759,12 +6759,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>96</v>
+        <v>1392</v>
       </c>
       <c r="D157" t="n">
-        <v>56</v>
+        <v>629</v>
       </c>
       <c r="E157" t="n">
-        <v>3059042</v>
+        <v>24420154</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6800,12 +6800,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E158" t="n">
-        <v>391978</v>
+        <v>3216892</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>44928</v>
+        <v>5</v>
       </c>
       <c r="D159" t="n">
-        <v>13218</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>72599757</v>
+        <v>391978</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6882,10 +6882,51 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>100 à 199 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>VOLET1</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13232</v>
+      </c>
+      <c r="E160" t="n">
+        <v>73379371</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62825</v>
+        <v>63153</v>
       </c>
       <c r="D2" t="n">
-        <v>18363</v>
+        <v>18371</v>
       </c>
       <c r="E2" t="n">
-        <v>143295276</v>
+        <v>145374240</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152673</v>
+        <v>153617</v>
       </c>
       <c r="D3" t="n">
-        <v>45912</v>
+        <v>45936</v>
       </c>
       <c r="E3" t="n">
-        <v>418953953</v>
+        <v>426407097</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57171</v>
+        <v>57677</v>
       </c>
       <c r="D4" t="n">
-        <v>17886</v>
+        <v>17900</v>
       </c>
       <c r="E4" t="n">
-        <v>207229509</v>
+        <v>212036372</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19072</v>
+        <v>19292</v>
       </c>
       <c r="D5" t="n">
-        <v>6131</v>
+        <v>6142</v>
       </c>
       <c r="E5" t="n">
-        <v>89220314</v>
+        <v>92027923</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7794</v>
+        <v>7938</v>
       </c>
       <c r="D6" t="n">
-        <v>2863</v>
+        <v>2873</v>
       </c>
       <c r="E6" t="n">
-        <v>59523641</v>
+        <v>62501472</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1897</v>
+        <v>1934</v>
       </c>
       <c r="D7" t="n">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E7" t="n">
-        <v>30268273</v>
+        <v>31854924</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>5491475</v>
+        <v>5650910</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>1839389</v>
+        <v>2259389</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66816</v>
+        <v>66994</v>
       </c>
       <c r="D12" t="n">
-        <v>19950</v>
+        <v>19967</v>
       </c>
       <c r="E12" t="n">
-        <v>113433256</v>
+        <v>113897162</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15879</v>
+        <v>15951</v>
       </c>
       <c r="D13" t="n">
-        <v>4669</v>
+        <v>4672</v>
       </c>
       <c r="E13" t="n">
-        <v>36285514</v>
+        <v>36741227</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42871</v>
+        <v>43131</v>
       </c>
       <c r="D14" t="n">
-        <v>13110</v>
+        <v>13119</v>
       </c>
       <c r="E14" t="n">
-        <v>116220166</v>
+        <v>118193824</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14657</v>
+        <v>14775</v>
       </c>
       <c r="D15" t="n">
-        <v>4718</v>
+        <v>4721</v>
       </c>
       <c r="E15" t="n">
-        <v>50725382</v>
+        <v>51869756</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4414</v>
+        <v>4453</v>
       </c>
       <c r="D16" t="n">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E16" t="n">
-        <v>18919420</v>
+        <v>19358960</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1621</v>
+        <v>1650</v>
       </c>
       <c r="D17" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E17" t="n">
-        <v>11648192</v>
+        <v>12318429</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D18" t="n">
         <v>238</v>
       </c>
       <c r="E18" t="n">
-        <v>7159278</v>
+        <v>7219078</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15814</v>
+        <v>15868</v>
       </c>
       <c r="D21" t="n">
-        <v>4902</v>
+        <v>4905</v>
       </c>
       <c r="E21" t="n">
-        <v>26028458</v>
+        <v>26199695</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22261</v>
+        <v>22380</v>
       </c>
       <c r="D22" t="n">
-        <v>6366</v>
+        <v>6368</v>
       </c>
       <c r="E22" t="n">
-        <v>55319846</v>
+        <v>56127801</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53016</v>
+        <v>53356</v>
       </c>
       <c r="D23" t="n">
-        <v>16082</v>
+        <v>16090</v>
       </c>
       <c r="E23" t="n">
-        <v>152620307</v>
+        <v>155487162</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18940</v>
+        <v>19104</v>
       </c>
       <c r="D24" t="n">
-        <v>6239</v>
+        <v>6241</v>
       </c>
       <c r="E24" t="n">
-        <v>69189031</v>
+        <v>70868444</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5852</v>
+        <v>5901</v>
       </c>
       <c r="D25" t="n">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E25" t="n">
-        <v>26460479</v>
+        <v>27150554</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2173</v>
+        <v>2204</v>
       </c>
       <c r="D26" t="n">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E26" t="n">
-        <v>16433322</v>
+        <v>17075140</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D27" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E27" t="n">
-        <v>7432898</v>
+        <v>7849143</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17459</v>
+        <v>17502</v>
       </c>
       <c r="D30" t="n">
         <v>5490</v>
       </c>
       <c r="E30" t="n">
-        <v>28734247</v>
+        <v>28873027</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12510</v>
+        <v>12580</v>
       </c>
       <c r="D31" t="n">
         <v>3691</v>
       </c>
       <c r="E31" t="n">
-        <v>28617014</v>
+        <v>29072425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36329</v>
+        <v>36556</v>
       </c>
       <c r="D32" t="n">
-        <v>11342</v>
+        <v>11348</v>
       </c>
       <c r="E32" t="n">
-        <v>95340502</v>
+        <v>97164555</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13443</v>
+        <v>13563</v>
       </c>
       <c r="D33" t="n">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E33" t="n">
-        <v>45243959</v>
+        <v>46396982</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3805</v>
+        <v>3830</v>
       </c>
       <c r="D34" t="n">
         <v>1317</v>
       </c>
       <c r="E34" t="n">
-        <v>15807801</v>
+        <v>16144369</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="D35" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E35" t="n">
-        <v>10407334</v>
+        <v>10793814</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D36" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E36" t="n">
-        <v>4075730</v>
+        <v>4383933</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12633</v>
+        <v>12667</v>
       </c>
       <c r="D38" t="n">
         <v>3880</v>
       </c>
       <c r="E38" t="n">
-        <v>20542841</v>
+        <v>20632504</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5836</v>
+        <v>5851</v>
       </c>
       <c r="D39" t="n">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E39" t="n">
-        <v>15767303</v>
+        <v>15828485</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>13414</v>
+        <v>13472</v>
       </c>
       <c r="D40" t="n">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="E40" t="n">
-        <v>37221857</v>
+        <v>37628134</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5794</v>
+        <v>5831</v>
       </c>
       <c r="D41" t="n">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="E41" t="n">
-        <v>21460967</v>
+        <v>21796884</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1698</v>
+        <v>1716</v>
       </c>
       <c r="D42" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E42" t="n">
-        <v>8101417</v>
+        <v>8259698</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D43" t="n">
         <v>249</v>
       </c>
       <c r="E43" t="n">
-        <v>4743157</v>
+        <v>4854183</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" t="n">
         <v>59</v>
       </c>
       <c r="E44" t="n">
-        <v>1626928</v>
+        <v>1674501</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3997</v>
+        <v>4003</v>
       </c>
       <c r="D46" t="n">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E46" t="n">
-        <v>6412636</v>
+        <v>6427391</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>28737</v>
+        <v>28857</v>
       </c>
       <c r="D47" t="n">
-        <v>8986</v>
+        <v>8993</v>
       </c>
       <c r="E47" t="n">
-        <v>66639772</v>
+        <v>67283402</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>85327</v>
+        <v>85730</v>
       </c>
       <c r="D48" t="n">
-        <v>27429</v>
+        <v>27440</v>
       </c>
       <c r="E48" t="n">
-        <v>232795495</v>
+        <v>235764147</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>33531</v>
+        <v>33765</v>
       </c>
       <c r="D49" t="n">
-        <v>11023</v>
+        <v>11030</v>
       </c>
       <c r="E49" t="n">
-        <v>115957517</v>
+        <v>118212236</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>11445</v>
+        <v>11534</v>
       </c>
       <c r="D50" t="n">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="E50" t="n">
-        <v>49856067</v>
+        <v>51134043</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4442</v>
+        <v>4496</v>
       </c>
       <c r="D51" t="n">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="E51" t="n">
-        <v>34127690</v>
+        <v>35375056</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="D52" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E52" t="n">
-        <v>15948179</v>
+        <v>16701999</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" t="n">
         <v>35</v>
       </c>
       <c r="E53" t="n">
-        <v>2409927</v>
+        <v>2529176</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30566</v>
+        <v>30653</v>
       </c>
       <c r="D54" t="n">
-        <v>10656</v>
+        <v>10671</v>
       </c>
       <c r="E54" t="n">
-        <v>61084173</v>
+        <v>61360533</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="D55" t="n">
         <v>771</v>
       </c>
       <c r="E55" t="n">
-        <v>4860354</v>
+        <v>4864520</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9407</v>
+        <v>9425</v>
       </c>
       <c r="D56" t="n">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E56" t="n">
-        <v>16439999</v>
+        <v>16582288</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3147</v>
+        <v>3155</v>
       </c>
       <c r="D57" t="n">
         <v>991</v>
       </c>
       <c r="E57" t="n">
-        <v>6042957</v>
+        <v>6100073</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D58" t="n">
         <v>354</v>
       </c>
       <c r="E58" t="n">
-        <v>2449248</v>
+        <v>2469248</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10025</v>
+        <v>10053</v>
       </c>
       <c r="D62" t="n">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="E62" t="n">
-        <v>15546012</v>
+        <v>15625139</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="D63" t="n">
         <v>368</v>
       </c>
       <c r="E63" t="n">
-        <v>4252574</v>
+        <v>4266978</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4512</v>
+        <v>4514</v>
       </c>
       <c r="D64" t="n">
         <v>942</v>
       </c>
       <c r="E64" t="n">
-        <v>9932352</v>
+        <v>9941243</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D65" t="n">
         <v>402</v>
       </c>
       <c r="E65" t="n">
-        <v>4277771</v>
+        <v>4299271</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2930</v>
+        <v>2936</v>
       </c>
       <c r="D69" t="n">
         <v>550</v>
       </c>
       <c r="E69" t="n">
-        <v>5826110</v>
+        <v>5843746</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25007</v>
+        <v>25114</v>
       </c>
       <c r="D70" t="n">
-        <v>7278</v>
+        <v>7280</v>
       </c>
       <c r="E70" t="n">
-        <v>53994053</v>
+        <v>54638836</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>73272</v>
+        <v>73713</v>
       </c>
       <c r="D71" t="n">
-        <v>22197</v>
+        <v>22205</v>
       </c>
       <c r="E71" t="n">
-        <v>190325044</v>
+        <v>193732119</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>27478</v>
+        <v>27728</v>
       </c>
       <c r="D72" t="n">
-        <v>8708</v>
+        <v>8712</v>
       </c>
       <c r="E72" t="n">
-        <v>93829216</v>
+        <v>96193482</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8914</v>
+        <v>9015</v>
       </c>
       <c r="D73" t="n">
-        <v>3033</v>
+        <v>3039</v>
       </c>
       <c r="E73" t="n">
-        <v>36378618</v>
+        <v>37531282</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3208</v>
+        <v>3259</v>
       </c>
       <c r="D74" t="n">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="E74" t="n">
-        <v>22609011</v>
+        <v>23727635</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="D75" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E75" t="n">
-        <v>14820555</v>
+        <v>15854505</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D76" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E76" t="n">
-        <v>1267303</v>
+        <v>1568816</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23268</v>
+        <v>23338</v>
       </c>
       <c r="D80" t="n">
-        <v>7039</v>
+        <v>7041</v>
       </c>
       <c r="E80" t="n">
-        <v>37816055</v>
+        <v>38007351</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>92130</v>
+        <v>92626</v>
       </c>
       <c r="D81" t="n">
-        <v>23797</v>
+        <v>23808</v>
       </c>
       <c r="E81" t="n">
-        <v>207729930</v>
+        <v>210576230</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>250254</v>
+        <v>251642</v>
       </c>
       <c r="D82" t="n">
-        <v>68395</v>
+        <v>68436</v>
       </c>
       <c r="E82" t="n">
-        <v>638790884</v>
+        <v>648886369</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>116320</v>
+        <v>117303</v>
       </c>
       <c r="D83" t="n">
-        <v>32738</v>
+        <v>32761</v>
       </c>
       <c r="E83" t="n">
-        <v>403270180</v>
+        <v>412507517</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>44672</v>
+        <v>45138</v>
       </c>
       <c r="D84" t="n">
-        <v>12901</v>
+        <v>12918</v>
       </c>
       <c r="E84" t="n">
-        <v>205691476</v>
+        <v>211083663</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>18395</v>
+        <v>18692</v>
       </c>
       <c r="D85" t="n">
-        <v>6163</v>
+        <v>6187</v>
       </c>
       <c r="E85" t="n">
-        <v>140671751</v>
+        <v>146465460</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4350</v>
+        <v>4418</v>
       </c>
       <c r="D86" t="n">
-        <v>1923</v>
+        <v>1934</v>
       </c>
       <c r="E86" t="n">
-        <v>76820379</v>
+        <v>79452684</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D87" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E87" t="n">
-        <v>10699574</v>
+        <v>11624906</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>86982</v>
+        <v>87207</v>
       </c>
       <c r="D93" t="n">
-        <v>22106</v>
+        <v>22113</v>
       </c>
       <c r="E93" t="n">
-        <v>145574607</v>
+        <v>146300473</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5878</v>
+        <v>5886</v>
       </c>
       <c r="D94" t="n">
         <v>1883</v>
       </c>
       <c r="E94" t="n">
-        <v>9514222</v>
+        <v>9566094</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13978</v>
+        <v>13989</v>
       </c>
       <c r="D95" t="n">
         <v>4929</v>
       </c>
       <c r="E95" t="n">
-        <v>23134276</v>
+        <v>23171672</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4455</v>
+        <v>4459</v>
       </c>
       <c r="D96" t="n">
         <v>1827</v>
       </c>
       <c r="E96" t="n">
-        <v>7751735</v>
+        <v>7775804</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6612</v>
+        <v>6620</v>
       </c>
       <c r="D101" t="n">
         <v>2047</v>
       </c>
       <c r="E101" t="n">
-        <v>9165984</v>
+        <v>9176150</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="D102" t="n">
         <v>680</v>
       </c>
       <c r="E102" t="n">
-        <v>4751254</v>
+        <v>4772754</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7758</v>
+        <v>7776</v>
       </c>
       <c r="D103" t="n">
         <v>2209</v>
       </c>
       <c r="E103" t="n">
-        <v>16498698</v>
+        <v>16621465</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2769</v>
+        <v>2774</v>
       </c>
       <c r="D104" t="n">
         <v>927</v>
       </c>
       <c r="E104" t="n">
-        <v>6890023</v>
+        <v>6939279</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D105" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E105" t="n">
-        <v>2970704</v>
+        <v>2982204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D106" t="n">
         <v>138</v>
       </c>
       <c r="E106" t="n">
-        <v>1466765</v>
+        <v>1483944</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5278</v>
+        <v>5284</v>
       </c>
       <c r="D109" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E109" t="n">
-        <v>7891938</v>
+        <v>7914280</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
         <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>37993</v>
+        <v>47993</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18044</v>
+        <v>18130</v>
       </c>
       <c r="D116" t="n">
-        <v>5124</v>
+        <v>5125</v>
       </c>
       <c r="E116" t="n">
-        <v>42490599</v>
+        <v>43070869</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>47768</v>
+        <v>48097</v>
       </c>
       <c r="D117" t="n">
-        <v>14752</v>
+        <v>14759</v>
       </c>
       <c r="E117" t="n">
-        <v>130429808</v>
+        <v>132974112</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>17421</v>
+        <v>17597</v>
       </c>
       <c r="D118" t="n">
-        <v>5608</v>
+        <v>5612</v>
       </c>
       <c r="E118" t="n">
-        <v>60549130</v>
+        <v>62301352</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5600</v>
+        <v>5668</v>
       </c>
       <c r="D119" t="n">
         <v>1933</v>
       </c>
       <c r="E119" t="n">
-        <v>24474348</v>
+        <v>25353931</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1993</v>
+        <v>2026</v>
       </c>
       <c r="D120" t="n">
         <v>754</v>
       </c>
       <c r="E120" t="n">
-        <v>15316366</v>
+        <v>15927474</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D121" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E121" t="n">
-        <v>7184312</v>
+        <v>7589128</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>14697</v>
+        <v>14726</v>
       </c>
       <c r="D123" t="n">
         <v>4538</v>
       </c>
       <c r="E123" t="n">
-        <v>23970666</v>
+        <v>24076708</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>49802</v>
+        <v>50097</v>
       </c>
       <c r="D124" t="n">
-        <v>14474</v>
+        <v>14477</v>
       </c>
       <c r="E124" t="n">
-        <v>116673042</v>
+        <v>118567658</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>105730</v>
+        <v>106366</v>
       </c>
       <c r="D125" t="n">
-        <v>33638</v>
+        <v>33655</v>
       </c>
       <c r="E125" t="n">
-        <v>277178262</v>
+        <v>282167213</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>36760</v>
+        <v>37066</v>
       </c>
       <c r="D126" t="n">
-        <v>12270</v>
+        <v>12281</v>
       </c>
       <c r="E126" t="n">
-        <v>123465563</v>
+        <v>126317647</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>12141</v>
+        <v>12266</v>
       </c>
       <c r="D127" t="n">
-        <v>4255</v>
+        <v>4262</v>
       </c>
       <c r="E127" t="n">
-        <v>51481350</v>
+        <v>53067476</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4375</v>
+        <v>4453</v>
       </c>
       <c r="D128" t="n">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="E128" t="n">
-        <v>32586822</v>
+        <v>34235349</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1102</v>
+        <v>1128</v>
       </c>
       <c r="D129" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E129" t="n">
-        <v>17956920</v>
+        <v>18915115</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5673,13 +5673,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D130" t="n">
         <v>37</v>
       </c>
       <c r="E130" t="n">
-        <v>1515542</v>
+        <v>1599580</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>38301</v>
+        <v>38391</v>
       </c>
       <c r="D133" t="n">
-        <v>12437</v>
+        <v>12443</v>
       </c>
       <c r="E133" t="n">
-        <v>61400303</v>
+        <v>61674094</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>60608</v>
+        <v>61019</v>
       </c>
       <c r="D134" t="n">
-        <v>16803</v>
+        <v>16812</v>
       </c>
       <c r="E134" t="n">
-        <v>143786575</v>
+        <v>146387145</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5878,13 +5878,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>125553</v>
+        <v>126410</v>
       </c>
       <c r="D135" t="n">
-        <v>37940</v>
+        <v>37952</v>
       </c>
       <c r="E135" t="n">
-        <v>325564314</v>
+        <v>331962174</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5919,13 +5919,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>41621</v>
+        <v>42014</v>
       </c>
       <c r="D136" t="n">
-        <v>13311</v>
+        <v>13320</v>
       </c>
       <c r="E136" t="n">
-        <v>142184204</v>
+        <v>145930375</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>12851</v>
+        <v>13007</v>
       </c>
       <c r="D137" t="n">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="E137" t="n">
-        <v>54121163</v>
+        <v>55907274</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4608</v>
+        <v>4678</v>
       </c>
       <c r="D138" t="n">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="E138" t="n">
-        <v>33191306</v>
+        <v>34445300</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="D139" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E139" t="n">
-        <v>16771360</v>
+        <v>17748235</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6083,13 +6083,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D140" t="n">
         <v>45</v>
       </c>
       <c r="E140" t="n">
-        <v>2490503</v>
+        <v>2552266</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
         <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>206000</v>
+        <v>216000</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>48236</v>
+        <v>48356</v>
       </c>
       <c r="D142" t="n">
-        <v>14945</v>
+        <v>14951</v>
       </c>
       <c r="E142" t="n">
-        <v>75432533</v>
+        <v>75742999</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>21714</v>
+        <v>21831</v>
       </c>
       <c r="D143" t="n">
-        <v>6334</v>
+        <v>6335</v>
       </c>
       <c r="E143" t="n">
-        <v>51093244</v>
+        <v>51885224</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>52833</v>
+        <v>53177</v>
       </c>
       <c r="D144" t="n">
-        <v>16644</v>
+        <v>16649</v>
       </c>
       <c r="E144" t="n">
-        <v>146010503</v>
+        <v>148901192</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20430</v>
+        <v>20614</v>
       </c>
       <c r="D145" t="n">
-        <v>6815</v>
+        <v>6816</v>
       </c>
       <c r="E145" t="n">
-        <v>71797728</v>
+        <v>73628424</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6111</v>
+        <v>6170</v>
       </c>
       <c r="D146" t="n">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="E146" t="n">
-        <v>26260649</v>
+        <v>26987531</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2179</v>
+        <v>2219</v>
       </c>
       <c r="D147" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="E147" t="n">
-        <v>17516173</v>
+        <v>18228540</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D148" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E148" t="n">
-        <v>10922337</v>
+        <v>11223562</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>16025</v>
+        <v>16050</v>
       </c>
       <c r="D151" t="n">
         <v>5089</v>
       </c>
       <c r="E151" t="n">
-        <v>26120205</v>
+        <v>26190567</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>59593</v>
+        <v>59935</v>
       </c>
       <c r="D152" t="n">
-        <v>16311</v>
+        <v>16317</v>
       </c>
       <c r="E152" t="n">
-        <v>140114699</v>
+        <v>142432927</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>138430</v>
+        <v>139311</v>
       </c>
       <c r="D153" t="n">
-        <v>39684</v>
+        <v>39700</v>
       </c>
       <c r="E153" t="n">
-        <v>369194055</v>
+        <v>375666497</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>45216</v>
+        <v>45599</v>
       </c>
       <c r="D154" t="n">
-        <v>13466</v>
+        <v>13473</v>
       </c>
       <c r="E154" t="n">
-        <v>161595527</v>
+        <v>165213480</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>14128</v>
+        <v>14264</v>
       </c>
       <c r="D155" t="n">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="E155" t="n">
-        <v>65370407</v>
+        <v>66926568</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5633</v>
+        <v>5720</v>
       </c>
       <c r="D156" t="n">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="E156" t="n">
-        <v>42517885</v>
+        <v>44212087</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="D157" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E157" t="n">
-        <v>24420154</v>
+        <v>24979063</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>45292</v>
+        <v>45408</v>
       </c>
       <c r="D160" t="n">
-        <v>13232</v>
+        <v>13237</v>
       </c>
       <c r="E160" t="n">
-        <v>73379371</v>
+        <v>73671305</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
